--- a/resources/sample/extra_ticket_import_sample.xlsx
+++ b/resources/sample/extra_ticket_import_sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\黑客社\20172016學生社團博覽會 打卡集點抽獎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CheckIn2017\resources\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>學號(NID)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,13 +59,17 @@
   </si>
   <si>
     <t>資訊工程學系三年級丁班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽獎編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,11 +132,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,7 +150,15 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="合計" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -449,55 +467,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/sample/extra_ticket_import_sample.xlsx
+++ b/resources/sample/extra_ticket_import_sample.xlsx
@@ -150,11 +150,34 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="合計" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -472,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -526,6 +549,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
